--- a/projects/test_building/input/Parameter_UnitUser_PersonNumber_AreaRelevance.xlsx
+++ b/projects/test_building/input/Parameter_UnitUser_PersonNumber_AreaRelevance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094372D-F611-7F45-9ED6-A7A604666F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CFE4C-14FF-184E-BDF0-349B4EBA1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="-20960" windowWidth="22260" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>unit</t>
   </si>
@@ -164,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_subsector"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_unit_user_type"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,8 +540,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>61</v>
+      <c r="A7" s="2">
+        <v>31</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -550,29 +550,29 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>61</v>
+      <c r="A8" s="2">
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -763,33 +763,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>315</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>316</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L29" s="3"/>
@@ -833,61 +811,55 @@
     <row r="42" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L29:L31">
+  <conditionalFormatting sqref="L27:L29">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+      <formula>$F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="notEqual">
       <formula>$F28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
-      <formula>$F29</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34 L36">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="notEqual">
-      <formula>$F30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
+      <formula>$F34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="notEqual">
       <formula>$F33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L39">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
-      <formula>$F36</formula>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="notEqual">
+      <formula>$F32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="notEqual">
-      <formula>$F35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="notEqual">
-      <formula>$F34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
     <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
-      <formula>$F33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:L44">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
-      <formula>$F42</formula>
+      <formula>$F40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
